--- a/src/main/resources/static/excel/xlsx/perms.xlsx
+++ b/src/main/resources/static/excel/xlsx/perms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A3950-A390-46D0-BE62-CCF2C7DB2337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C99F7B-5A57-47E0-A812-DA004511AA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>样本，添加时请删除。</t>
+    <t>样版，添加时请删除。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/static/excel/xlsx/perms.xlsx
+++ b/src/main/resources/static/excel/xlsx/perms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C99F7B-5A57-47E0-A812-DA004511AA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EA10C-BA43-4F85-BD29-62A195C5FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -64,10 +64,15 @@
     <t>el-icon-setting</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>样版，添加时请删除。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +489,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,10 +546,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -553,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
